--- a/焦煤/eta/主焦煤价格-临汾_月度数据.xlsx
+++ b/焦煤/eta/主焦煤价格-临汾_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1506.36</v>
+        <v>1750.62</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1540</v>
+        <v>1576</v>
       </c>
       <c r="C3" t="n">
-        <v>1552.71</v>
+        <v>1712.52</v>
       </c>
     </row>
     <row r="4">
